--- a/2018년 웹페이지 작업/web page total_0716.xlsx
+++ b/2018년 웹페이지 작업/web page total_0716.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LabVIEW\Foens 2016.11.28~\문서\홈페이지 제작\2018년 웹페이지 작업\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LabVIEW\Foens 2016.11.28~\문서\홈페이지 제작\Webpage\branches\aa\2018년 웹페이지 작업\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4982011-EF52-4BA8-9A0C-DE6892923340}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AFC7A9-98DA-47C0-B003-7901EE2C25DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>회사소개</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1700,10 +1700,6 @@
   </si>
   <si>
     <t>모듈형 DAQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>virtual bench</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2788,14 +2784,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Virtual Bench</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산업용 통신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Isolate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2828,7 +2816,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vertual Bench</t>
+    <t>인터페이스 카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VirtualBench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충방전시험기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3505,6 +3501,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3516,9 +3515,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4069,7 +4065,7 @@
   <dimension ref="B1:M26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:I18"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4111,18 +4107,18 @@
         <v>0</v>
       </c>
       <c r="D4" s="41"/>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="65"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="41"/>
       <c r="K4" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L4" s="42"/>
       <c r="M4" s="40" t="s">
@@ -4148,25 +4144,25 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="66" t="s">
-        <v>73</v>
+      <c r="K6" s="67" t="s">
+        <v>70</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
@@ -4179,34 +4175,34 @@
       <c r="G7" s="8"/>
       <c r="H7" s="13"/>
       <c r="I7" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="66"/>
+      <c r="K7" s="67"/>
       <c r="L7" s="22"/>
       <c r="M7" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C8" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="13"/>
       <c r="I8" s="50"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="66"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="22"/>
       <c r="M8" s="60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -4219,13 +4215,13 @@
         <v>12</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="27"/>
       <c r="L9" s="22"/>
       <c r="M9" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -4251,7 +4247,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="13"/>
       <c r="I11" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="27"/>
@@ -4266,7 +4262,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="13"/>
       <c r="I12" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="27"/>
@@ -4281,7 +4277,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="31"/>
       <c r="I13" s="58" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="27"/>
@@ -4296,7 +4292,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="13"/>
       <c r="I14" s="43" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="27"/>
@@ -4323,10 +4319,10 @@
       <c r="F16" s="14"/>
       <c r="G16" s="8"/>
       <c r="H16" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="27"/>
@@ -4341,7 +4337,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="31"/>
       <c r="I17" s="43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="27"/>
@@ -4356,7 +4352,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="31"/>
       <c r="I18" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="27"/>
@@ -4371,7 +4367,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="31"/>
       <c r="I19" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="27"/>
@@ -4398,10 +4394,10 @@
       <c r="F21" s="14"/>
       <c r="G21" s="8"/>
       <c r="H21" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="43" t="s">
         <v>42</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>43</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="27"/>
@@ -4416,7 +4412,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="61"/>
       <c r="I22" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="27"/>
@@ -4431,7 +4427,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="61"/>
       <c r="I23" s="43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="27"/>
@@ -4446,7 +4442,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="62"/>
       <c r="I24" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="28"/>
@@ -4455,7 +4451,7 @@
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="H26" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4500,7 +4496,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="52.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -4508,7 +4504,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4546,7 +4542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4558,10 +4554,10 @@
   <sheetData>
     <row r="3" spans="2:3" ht="68.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4572,7 +4568,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -4591,8 +4587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4613,15 +4609,15 @@
         <v>13</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4636,54 +4632,54 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="45" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -4691,43 +4687,43 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="67"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="45" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="67"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="45" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4735,39 +4731,39 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="68" t="s">
-        <v>53</v>
-      </c>
       <c r="C25" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4796,17 +4792,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4848,26 +4844,26 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="14"/>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -4885,7 +4881,7 @@
       <c r="B5" s="27"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -4920,7 +4916,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="34" t="s">
@@ -4928,11 +4924,11 @@
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="35"/>
       <c r="H10" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="14"/>
@@ -4945,7 +4941,7 @@
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
@@ -5047,7 +5043,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="31"/>
       <c r="E20" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="8"/>
@@ -5082,7 +5078,7 @@
     <row r="24" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -5097,11 +5093,11 @@
       <c r="B26" s="27"/>
       <c r="C26" s="8"/>
       <c r="D26" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>

--- a/2018년 웹페이지 작업/web page total_0716.xlsx
+++ b/2018년 웹페이지 작업/web page total_0716.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LabVIEW\Foens 2016.11.28~\문서\홈페이지 제작\Webpage\branches\aa\2018년 웹페이지 작업\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AFC7A9-98DA-47C0-B003-7901EE2C25DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D55667-3971-4299-8AD8-6FE4723453BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="4" r:id="rId1"/>
@@ -2832,7 +2832,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3028,6 +3028,14 @@
       <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -3308,7 +3316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3503,6 +3511,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4064,8 +4075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4107,15 +4118,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="41"/>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="66"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="41"/>
       <c r="K4" s="40" t="s">
         <v>55</v>
@@ -4157,7 +4168,7 @@
         <v>23</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="68" t="s">
         <v>70</v>
       </c>
       <c r="L6" s="22"/>
@@ -4178,7 +4189,7 @@
         <v>58</v>
       </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="67"/>
+      <c r="K7" s="68"/>
       <c r="L7" s="22"/>
       <c r="M7" s="27" t="s">
         <v>59</v>
@@ -4199,7 +4210,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="50"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="67"/>
+      <c r="K8" s="68"/>
       <c r="L8" s="22"/>
       <c r="M8" s="60" t="s">
         <v>53</v>
@@ -4220,7 +4231,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="27"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="65" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4587,8 +4598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4632,7 +4643,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="45" t="s">
         <v>71</v>
       </c>
@@ -4641,7 +4652,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="45" t="s">
         <v>18</v>
       </c>
@@ -4650,7 +4661,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="45" t="s">
         <v>66</v>
       </c>
@@ -4691,7 +4702,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="45" t="s">
         <v>72</v>
       </c>
@@ -4700,7 +4711,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="45" t="s">
         <v>73</v>
       </c>
@@ -4709,7 +4720,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="45" t="s">
         <v>62</v>
       </c>
@@ -4718,7 +4729,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="45" t="s">
         <v>78</v>
       </c>
